--- a/data/trans_bre/P15_4-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_4-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -641,22 +641,22 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -666,22 +666,22 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-13,78%</t>
+          <t>-7,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,59%</t>
+          <t>-4,31%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>-8,3%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 2,81</t>
+          <t>-5,22; 2,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,61</t>
+          <t>-3,26; 2,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 3,86</t>
+          <t>-6,6; 3,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 3,51</t>
+          <t>-7,0; 3,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 1,64</t>
+          <t>-9,18; 1,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 21,66</t>
+          <t>-29,39; 19,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-45,95; 28,57</t>
+          <t>-38,29; 39,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 17,37</t>
+          <t>-22,37; 13,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 10,73</t>
+          <t>-17,91; 10,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 4,07</t>
+          <t>-19,59; 4,44</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -786,22 +786,22 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-61,66%</t>
+          <t>-60,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,75%</t>
+          <t>-14,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>-10,01%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>-3,75%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 2,1</t>
+          <t>-4,78; 2,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,06; -1,51</t>
+          <t>-7,16; -1,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 1,82</t>
+          <t>-9,28; 1,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 2,87</t>
+          <t>-9,53; 2,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 8,03</t>
+          <t>-11,22; 8,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,14; 23,11</t>
+          <t>-37,95; 21,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-78,99; -26,48</t>
+          <t>-78,49; -28,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,97; 7,99</t>
+          <t>-30,69; 5,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 8,59</t>
+          <t>-23,61; 8,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 23,27</t>
+          <t>-25,04; 23,49</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -901,22 +901,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,82%</t>
+          <t>-6,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>81,8%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>-1,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,69%</t>
+          <t>-5,89%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 5,72</t>
+          <t>-8,72; 6,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 14,31</t>
+          <t>-4,74; 6,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 10,46</t>
+          <t>-10,65; 9,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 10,46</t>
+          <t>-13,06; 11,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -959,22 +959,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,94; 65,33</t>
+          <t>-50,19; 80,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,59; 482,68</t>
+          <t>-60,86; 245,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,09; 48,66</t>
+          <t>-30,95; 46,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 37,94</t>
+          <t>-32,06; 40,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1001,22 +1001,22 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-24,66%</t>
+          <t>-25,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,41%</t>
+          <t>-8,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>-6,77%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-7,23%</t>
+          <t>-7,22%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,23</t>
+          <t>-3,43; 1,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 0,2</t>
+          <t>-3,55; 0,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,69</t>
+          <t>-5,58; 1,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 1,29</t>
+          <t>-6,06; 1,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 1,42</t>
+          <t>-8,02; 1,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 10,77</t>
+          <t>-23,91; 11,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,15; 3,49</t>
+          <t>-45,13; 2,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 7,18</t>
+          <t>-19,27; 4,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 3,81</t>
+          <t>-16,01; 3,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 3,51</t>
+          <t>-17,94; 3,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15_4-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_4-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,3</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-3,59</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-5,98%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-7,14%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-5,04%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-4,31%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-8,3%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.8860726071380026</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.7738779474806099</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.3982846533272882</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.580742763321258</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-3.590926443823195</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.059837459829719</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1057413714256452</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.01598503511090895</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.04432836621032899</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.08302593045030486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 2,41</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 2,23</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,6; 3,12</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,0; 3,36</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-9,18; 1,77</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-29,39; 19,27</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-38,29; 39,36</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-22,37; 13,6</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-17,91; 10,29</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-19,59; 4,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.224550827721101</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.51384385949251</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.431417953797903</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-7.033495974108132</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-9.181871240462023</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2939173311420408</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3980274140467484</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1992376544248334</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1818217604987104</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1958930322239911</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.413371173588805</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.010098636321167</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.023950766737436</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.518284012351979</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.76870668072695</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.192732300021049</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.3656232870718788</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1767371806452944</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.105743079263312</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.04443486568258719</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,39</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,94</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,7</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,51</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-12,69%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-60,6%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-14,31%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-10,01%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-3,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,78; 2,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,16; -1,66</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,28; 1,23</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-9,53; 2,96</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-11,22; 8,06</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-37,95; 21,04</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-78,49; -28,46</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-30,69; 5,36</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-23,61; 8,91</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-25,04; 23,49</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.407577134380676</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.789397351268014</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-4.031596748393618</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-3.62772594966308</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-1.512794899967451</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1269225884322914</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.6382655724231575</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1468957133354286</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.09899461773331372</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.0374645469372902</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,86</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,08</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-6,84%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>27,42%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-1,67%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-5,89%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.78142468892946</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.682405422369317</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.561980575916259</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-9.576284529104404</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-11.22279323560772</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3794612435382663</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8043978891131626</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3096633177031763</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2374605386795561</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2503924348716532</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,72; 6,31</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 6,92</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,65; 9,85</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-13,06; 11,04</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-50,19; 80,6</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-60,86; 245,88</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-30,95; 46,55</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-32,06; 40,26</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.997444193556587</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-2.03574508066478</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.23660302572092</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.135662363589502</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>8.056783329504285</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2103894205065066</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.3160393558754068</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.04807938585456163</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.0968904176721638</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.2348919996971022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,221 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,76</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,27</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-2,45</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-3,07</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-7,85%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-25,61%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-8,47%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-6,77%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-7,22%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.8601668204953339</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.172905218220815</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.9913194332013042</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.418143729321748</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>-0.06839658903187519</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.6594759196936</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.03390787916086626</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.06721515060439706</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,43; 1,29</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 0,16</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,58; 1,21</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,06; 1,08</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-8,02; 1,23</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-23,91; 11,32</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-45,13; 2,43</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-19,27; 4,89</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-16,01; 3,47</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-17,94; 3,06</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.716732706140171</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.810324465648185</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.25190890390852</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-13.96431149586891</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.5019490409570836</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.550796669303121</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3236133507216877</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3386276222033951</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.311780383735899</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.93711563601109</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.371423650115908</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.39682598583021</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.805990018011429</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>3.697508620355277</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.4358471946024718</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.3715630689610682</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.023836189914984</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.8523143044374</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.936748561699145</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-2.479758861730081</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-3.074437796405949</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.07851582417530049</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.261439528983254</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.07320360581192956</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.06870387528461104</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.07223297248968073</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.427902764293486</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.754803179321644</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.103993696110309</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-6.270620790031781</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-8.017535890079659</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.239076502163888</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4559285720007799</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1819677452512361</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.165974267500757</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1794290885586027</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.286322057672799</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.1962722456188002</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.572305657037274</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.985533214655808</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.229656249283485</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1131765625460015</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.03412800664229401</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.06381570108944978</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.03113431835034303</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.03063212964189685</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1101,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
